--- a/CashFlow/CGNX_cashflow.xlsx
+++ b/CashFlow/CGNX_cashflow.xlsx
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
-        <v>223000000.0</v>
+        <v>-10319000.0</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>167118000.0</v>
+        <v>56935000.0</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>118335000.0</v>
+        <v>63553000.0</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>69943000.0</v>
+        <v>74779000.0</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>19016000.0</v>
+        <v>73898000.0</v>
       </c>
       <c r="G6" s="0" t="n">
         <v>21666000.0</v>
@@ -1054,19 +1054,19 @@
         </is>
       </c>
       <c r="B8" s="0" t="n">
-        <v>-1688000.0</v>
+        <v>71000000.0</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>8618000.0</v>
+        <v>73000000.0</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>5617000.0</v>
+        <v>52443000.0</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>3299000.0</v>
+        <v>33881000.0</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>-6796000.0</v>
+        <v>6173000.0</v>
       </c>
       <c r="G8" s="0" t="n">
         <v>-13713000.0</v>
